--- a/biology/Zoologie/Brachirus/Brachirus.xlsx
+++ b/biology/Zoologie/Brachirus/Brachirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachirus (autrefois appelé Synaptura) est un genre de poissons plats marins de la famille des Soleidae. Les espèces de ce genre vivent dans l'océan Indien et le Pacifique ouest.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site WoRMS[1] reconnaît 16 espèces du genre Brachirus :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site WoRMS reconnaît 16 espèces du genre Brachirus :
 Brachirus aenea Smith, 1931
 Brachirus annularis Fowler, 1934
 Brachirus aspilos Bleeker, 1852
@@ -530,7 +544,7 @@
 Brachirus selheimi Macleay, 1882
 Brachirus sorsogonensis Evermann &amp; Seale, 1907
 Brachirus swinhonis Steindachner, 1867
-FishBase[2] et EOL[3] reconnaissent, en plus des 16 espèces citées précédemment, 2 autres espèces:
+FishBase et EOL reconnaissent, en plus des 16 espèces citées précédemment, 2 autres espèces:
 Brachirus siamensis Sauvage, 1878
 Brachirus villosus Weber, 1907
 	Espèces du genre Brachirus
